--- a/biology/Botanique/Jardin_botanique_de_Taipei/Jardin_botanique_de_Taipei.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Taipei/Jardin_botanique_de_Taipei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Taipei (chinois traditionnel : 臺北植物園 ; pinyin : Táiběi Zhíwùyuán) est jardin botanique situé à Taipei, Taïwan.
 </t>
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est situé à l'académie Nanhai (en) dans le district de Zhongzheng
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 15 hectares, il comporte plus de 1500 espèces de plantes. 
 Il contient aussi un herbarium et le Musée du logement des envoyés impériaux.
@@ -574,10 +590,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin un site archéologique important puisqu'il abrite l'un des premiers sites d'habitation humaine du bassin de Taïwan[1].
-Le jardin botanique de Taipei a d'abord été construit comme une pépinière  en 1896 pendant la période coloniale japonaise. Il a ensuite été agrandi et rebaptisé Jardin botanique de Taipei en 1921 et est devenu le premier jardin botanique de Taïwan[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin un site archéologique important puisqu'il abrite l'un des premiers sites d'habitation humaine du bassin de Taïwan.
+Le jardin botanique de Taipei a d'abord été construit comme une pépinière  en 1896 pendant la période coloniale japonaise. Il a ensuite été agrandi et rebaptisé Jardin botanique de Taipei en 1921 et est devenu le premier jardin botanique de Taïwan.
 </t>
         </is>
       </c>
